--- a/contest_data.xlsx
+++ b/contest_data.xlsx
@@ -1,42 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwgi\Documents\Coding stuff\esc_app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0067B266-3F2B-489F-85A7-8877E90D0B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="4">
+  <si>
+    <t>contest_code</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>submitted</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="161"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,86 +77,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -434,935 +397,787 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="12.85546875" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="9.140625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="10.140625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="12.7109375" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="1" min="5" max="6"/>
-    <col width="9.140625" customWidth="1" style="1" min="7" max="16384"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>contest_code</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>submitted</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>1956</v>
       </c>
       <c r="C2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>1957</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>1958</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>1959</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
         <v>1960</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
         <v>1961</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
         <v>1962</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
         <v>1963</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
         <v>1964</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
         <v>1965</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
         <v>1966</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
         <v>1967</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
         <v>1968</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
         <v>1969</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
         <v>1970</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
         <v>1971</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
         <v>1972</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
         <v>1973</v>
       </c>
       <c r="C19" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
         <v>1974</v>
       </c>
       <c r="C20" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
         <v>1975</v>
       </c>
       <c r="C21" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
         <v>1976</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
         <v>1977</v>
       </c>
       <c r="C23" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
         <v>1978</v>
       </c>
       <c r="C24" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
         <v>1979</v>
       </c>
       <c r="C25" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
         <v>1980</v>
       </c>
       <c r="C26" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
         <v>1981</v>
       </c>
       <c r="C27" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
         <v>1982</v>
       </c>
       <c r="C28" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
         <v>1983</v>
       </c>
       <c r="C29" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
         <v>1984</v>
       </c>
       <c r="C30" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
         <v>1985</v>
       </c>
       <c r="C31" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="n">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
         <v>1986</v>
       </c>
       <c r="C32" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
         <v>1987</v>
       </c>
       <c r="C33" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
         <v>1988</v>
       </c>
       <c r="C34" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
         <v>1989</v>
       </c>
       <c r="C35" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
         <v>1990</v>
       </c>
       <c r="C36" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
         <v>1991</v>
       </c>
       <c r="C37" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
         <v>1992</v>
       </c>
       <c r="C38" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1">
         <v>1993</v>
       </c>
       <c r="C39" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B40" s="1" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
         <v>1994</v>
       </c>
       <c r="C40" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
         <v>1995</v>
       </c>
       <c r="C41" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1">
         <v>1996</v>
       </c>
       <c r="C42" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
         <v>1997</v>
       </c>
       <c r="C43" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1">
         <v>1998</v>
       </c>
       <c r="C44" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
         <v>1999</v>
       </c>
       <c r="C45" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
         <v>2000</v>
       </c>
       <c r="C46" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1">
         <v>2001</v>
       </c>
       <c r="C47" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
         <v>2002</v>
       </c>
       <c r="C48" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
         <v>2003</v>
       </c>
       <c r="C49" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="n">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
         <v>2004</v>
       </c>
       <c r="C50" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="n">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
         <v>2005</v>
       </c>
       <c r="C51" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="n">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1">
         <v>2006</v>
       </c>
       <c r="C52" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B53" s="1" t="n">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
         <v>2007</v>
       </c>
       <c r="C53" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
         <v>2008</v>
       </c>
       <c r="C54" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="n">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1">
         <v>2009</v>
       </c>
       <c r="C55" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B56" s="1" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1">
         <v>2010</v>
       </c>
       <c r="C56" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="n">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1">
         <v>2011</v>
       </c>
       <c r="C57" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="n">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1">
         <v>2012</v>
       </c>
       <c r="C58" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B59" s="1" t="n">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1">
         <v>2013</v>
       </c>
       <c r="C59" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B60" s="1" t="n">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1">
         <v>2014</v>
       </c>
       <c r="C60" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="n">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1">
         <v>2015</v>
       </c>
       <c r="C61" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B62" s="1" t="n">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1">
         <v>2016</v>
       </c>
       <c r="C62" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B63" s="1" t="n">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1">
         <v>2017</v>
       </c>
       <c r="C63" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B64" s="1" t="n">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1">
         <v>2018</v>
       </c>
       <c r="C64" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B65" s="1" t="n">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1">
         <v>2019</v>
       </c>
       <c r="C65" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B66" s="1" t="n">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1">
         <v>2020</v>
       </c>
       <c r="C66" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="n">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1">
         <v>2021</v>
       </c>
       <c r="C67" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B68" s="1" t="n">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1">
         <v>2022</v>
       </c>
       <c r="C68" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B69" s="1" t="n">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1">
         <v>2023</v>
       </c>
       <c r="C69" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="n">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1">
         <v>2024</v>
       </c>
       <c r="C70" s="1" t="b">
@@ -1371,6 +1186,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/contest_data.xlsx
+++ b/contest_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwgi\Documents\Coding stuff\esc_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0067B266-3F2B-489F-85A7-8877E90D0B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8FCA7A-C26E-4400-AC95-011A613F1AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="6">
   <si>
     <t>contest_code</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>ESC</t>
+  </si>
+  <si>
+    <t>contest_name</t>
+  </si>
+  <si>
+    <t>Eurovision Song Contest</t>
   </si>
 </sst>
 </file>
@@ -398,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,12 +415,12 @@
     <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="9.140625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -424,8 +430,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -435,8 +444,11 @@
       <c r="C2" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -446,8 +458,11 @@
       <c r="C3" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -457,8 +472,11 @@
       <c r="C4" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -468,8 +486,11 @@
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -479,8 +500,11 @@
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -490,8 +514,11 @@
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -501,8 +528,11 @@
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -512,8 +542,11 @@
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -523,8 +556,11 @@
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -534,8 +570,11 @@
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -545,8 +584,11 @@
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -556,8 +598,11 @@
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -567,8 +612,11 @@
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -578,8 +626,11 @@
       <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -589,8 +640,11 @@
       <c r="C16" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -600,8 +654,11 @@
       <c r="C17" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -611,8 +668,11 @@
       <c r="C18" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -622,8 +682,11 @@
       <c r="C19" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -633,8 +696,11 @@
       <c r="C20" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -644,8 +710,11 @@
       <c r="C21" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -655,8 +724,11 @@
       <c r="C22" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -666,8 +738,11 @@
       <c r="C23" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -677,8 +752,11 @@
       <c r="C24" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -688,8 +766,11 @@
       <c r="C25" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -699,8 +780,11 @@
       <c r="C26" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -710,8 +794,11 @@
       <c r="C27" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,8 +808,11 @@
       <c r="C28" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -732,8 +822,11 @@
       <c r="C29" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,8 +836,11 @@
       <c r="C30" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,8 +850,11 @@
       <c r="C31" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,8 +864,11 @@
       <c r="C32" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,8 +878,11 @@
       <c r="C33" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -787,8 +892,11 @@
       <c r="C34" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -798,8 +906,11 @@
       <c r="C35" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +920,11 @@
       <c r="C36" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -820,8 +934,11 @@
       <c r="C37" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -831,8 +948,11 @@
       <c r="C38" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +962,11 @@
       <c r="C39" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -853,8 +976,11 @@
       <c r="C40" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -864,8 +990,11 @@
       <c r="C41" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -875,8 +1004,11 @@
       <c r="C42" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -886,8 +1018,11 @@
       <c r="C43" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -897,8 +1032,11 @@
       <c r="C44" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -908,8 +1046,11 @@
       <c r="C45" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -919,8 +1060,11 @@
       <c r="C46" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -930,8 +1074,11 @@
       <c r="C47" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -941,8 +1088,11 @@
       <c r="C48" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -952,8 +1102,11 @@
       <c r="C49" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -963,8 +1116,11 @@
       <c r="C50" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
@@ -974,8 +1130,11 @@
       <c r="C51" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
@@ -985,8 +1144,11 @@
       <c r="C52" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
@@ -996,8 +1158,11 @@
       <c r="C53" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
@@ -1007,8 +1172,11 @@
       <c r="C54" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -1018,8 +1186,11 @@
       <c r="C55" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -1029,8 +1200,11 @@
       <c r="C56" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1214,11 @@
       <c r="C57" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -1051,8 +1228,11 @@
       <c r="C58" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -1062,8 +1242,11 @@
       <c r="C59" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -1073,8 +1256,11 @@
       <c r="C60" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -1084,8 +1270,11 @@
       <c r="C61" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -1095,8 +1284,11 @@
       <c r="C62" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -1106,8 +1298,11 @@
       <c r="C63" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -1117,8 +1312,11 @@
       <c r="C64" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -1128,8 +1326,11 @@
       <c r="C65" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -1139,8 +1340,11 @@
       <c r="C66" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -1150,8 +1354,11 @@
       <c r="C67" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -1161,8 +1368,11 @@
       <c r="C68" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -1172,8 +1382,11 @@
       <c r="C69" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -1182,6 +1395,9 @@
       </c>
       <c r="C70" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/contest_data.xlsx
+++ b/contest_data.xlsx
@@ -441,8 +441,8 @@
   </sheetPr>
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -451,8 +451,8 @@
     <col width="9.140625" customWidth="1" style="1" min="2" max="2"/>
     <col width="10.140625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
     <col width="22.7109375" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="1" min="5" max="8"/>
-    <col width="9.140625" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="5" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -505,7 +505,7 @@
         <v>1957</v>
       </c>
       <c r="C3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         <v>1958</v>
       </c>
       <c r="C4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
         <v>1959</v>
       </c>
       <c r="C5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         <v>1960</v>
       </c>
       <c r="C6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         <v>1961</v>
       </c>
       <c r="C7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         <v>1962</v>
       </c>
       <c r="C8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         <v>1963</v>
       </c>
       <c r="C9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         <v>1964</v>
       </c>
       <c r="C10" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
         <v>1965</v>
       </c>
       <c r="C11" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>1966</v>
       </c>
       <c r="C12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>1967</v>
       </c>
       <c r="C13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>1968</v>
       </c>
       <c r="C14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>1969</v>
       </c>
       <c r="C15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         <v>1970</v>
       </c>
       <c r="C16" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>1971</v>
       </c>
       <c r="C17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>1972</v>
       </c>
       <c r="C18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>1973</v>
       </c>
       <c r="C19" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>1974</v>
       </c>
       <c r="C20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>1975</v>
       </c>
       <c r="C21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>1976</v>
       </c>
       <c r="C22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>1977</v>
       </c>
       <c r="C23" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>1978</v>
       </c>
       <c r="C24" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>1979</v>
       </c>
       <c r="C25" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>1980</v>
       </c>
       <c r="C26" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>1981</v>
       </c>
       <c r="C27" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>1982</v>
       </c>
       <c r="C28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>1983</v>
       </c>
       <c r="C29" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>1984</v>
       </c>
       <c r="C30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>1985</v>
       </c>
       <c r="C31" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>1986</v>
       </c>
       <c r="C32" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>1987</v>
       </c>
       <c r="C33" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>1988</v>
       </c>
       <c r="C34" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>1989</v>
       </c>
       <c r="C35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>1990</v>
       </c>
       <c r="C36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>1991</v>
       </c>
       <c r="C37" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>1992</v>
       </c>
       <c r="C38" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>1993</v>
       </c>
       <c r="C39" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>1994</v>
       </c>
       <c r="C40" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>1995</v>
       </c>
       <c r="C41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>1996</v>
       </c>
       <c r="C42" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>1997</v>
       </c>
       <c r="C43" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>1998</v>
       </c>
       <c r="C44" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>1999</v>
       </c>
       <c r="C45" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>2000</v>
       </c>
       <c r="C46" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>2001</v>
       </c>
       <c r="C47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>2002</v>
       </c>
       <c r="C48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>2003</v>
       </c>
       <c r="C49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>2004</v>
       </c>
       <c r="C50" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>2005</v>
       </c>
       <c r="C51" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>2006</v>
       </c>
       <c r="C52" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>2007</v>
       </c>
       <c r="C53" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>2008</v>
       </c>
       <c r="C54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>2009</v>
       </c>
       <c r="C55" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>2010</v>
       </c>
       <c r="C56" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>2011</v>
       </c>
       <c r="C57" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>2012</v>
       </c>
       <c r="C58" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>2013</v>
       </c>
       <c r="C59" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>2014</v>
       </c>
       <c r="C60" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>2015</v>
       </c>
       <c r="C61" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>2016</v>
       </c>
       <c r="C62" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>2017</v>
       </c>
       <c r="C63" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>2018</v>
       </c>
       <c r="C64" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>2019</v>
       </c>
       <c r="C65" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>2020</v>
       </c>
       <c r="C66" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>2021</v>
       </c>
       <c r="C67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>2022</v>
       </c>
       <c r="C68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>2023</v>
       </c>
       <c r="C69" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>2024</v>
       </c>
       <c r="C70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1" t="inlineStr">
         <is>
